--- a/Teste Fetin.xlsx
+++ b/Teste Fetin.xlsx
@@ -24,42 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Critérios</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>Pesos</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>Opção 1</t>
-  </si>
-  <si>
-    <t>Opção 2</t>
-  </si>
-  <si>
-    <t>Opção 3</t>
-  </si>
-  <si>
-    <t>Opção 4</t>
-  </si>
-  <si>
-    <t>Opção 5</t>
+    <t>preço</t>
+  </si>
+  <si>
+    <t>avaliação</t>
+  </si>
+  <si>
+    <t>estilo</t>
+  </si>
+  <si>
+    <t>altura</t>
+  </si>
+  <si>
+    <t>cadeira 1</t>
+  </si>
+  <si>
+    <t>cadeira 2</t>
+  </si>
+  <si>
+    <t>cadeira 3</t>
   </si>
 </sst>
 </file>
@@ -407,150 +398,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
